--- a/public/templates/operations_template.xlsx
+++ b/public/templates/operations_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,102 +397,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>internalCode</v>
+      </c>
+      <c r="B1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>description</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>type</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>TEMP_CHECK</v>
+      </c>
+      <c r="B2" t="str">
         <v>Temperature Check</v>
       </c>
-      <c r="B2" t="str">
+      <c r="C2" t="str">
         <v>Measure and record temperature</v>
       </c>
-      <c r="C2" t="str">
+      <c r="D2" t="str">
         <v>number</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>PRESSURE_READ</v>
+      </c>
+      <c r="B3" t="str">
         <v>Pressure Reading</v>
       </c>
-      <c r="B3" t="str">
+      <c r="C3" t="str">
         <v>Check pressure levels</v>
       </c>
-      <c r="C3" t="str">
+      <c r="D3" t="str">
         <v>number</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
+        <v>VISUAL_INSP</v>
+      </c>
+      <c r="B4" t="str">
         <v>Visual Inspection</v>
       </c>
-      <c r="B4" t="str">
+      <c r="C4" t="str">
         <v>Perform visual inspection</v>
       </c>
-      <c r="C4" t="str">
+      <c r="D4" t="str">
         <v>text</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
+        <v>MAINT_DATE</v>
+      </c>
+      <c r="B5" t="str">
         <v>Maintenance Date</v>
       </c>
-      <c r="B5" t="str">
+      <c r="C5" t="str">
         <v>Date when maintenance was performed</v>
       </c>
-      <c r="C5" t="str">
+      <c r="D5" t="str">
         <v>date</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <v>START_TIME</v>
+      </c>
+      <c r="B6" t="str">
         <v>Start Time</v>
       </c>
-      <c r="B6" t="str">
+      <c r="C6" t="str">
         <v>Time when operation started</v>
       </c>
-      <c r="C6" t="str">
+      <c r="D6" t="str">
         <v>time</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
+        <v>COMPLETION</v>
+      </c>
+      <c r="B7" t="str">
         <v>Completion Status</v>
       </c>
-      <c r="B7" t="str">
+      <c r="C7" t="str">
         <v>Whether operation was completed</v>
       </c>
-      <c r="C7" t="str">
+      <c r="D7" t="str">
         <v>boolean</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
+        <v>NOTES</v>
+      </c>
+      <c r="B8" t="str">
         <v>Notes</v>
       </c>
-      <c r="B8" t="str">
+      <c r="C8" t="str">
         <v>Additional notes and observations</v>
       </c>
-      <c r="C8" t="str">
+      <c r="D8" t="str">
         <v>text</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
   </ignoredErrors>
 </worksheet>
 </file>